--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-11/Sample-11.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-11/Sample-11.xlsx
@@ -147,16 +147,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="bqjfpdse" xfId="1"/>
-    <cellStyle name="bqjfpdse_Alternate" xfId="2"/>
+    <cellStyle name="buckwppb" xfId="1"/>
+    <cellStyle name="buckwppb_Alternate" xfId="2"/>
     <cellStyle name="PerspectiveShadowStyle" xfId="3"/>
     <cellStyle name="PerspectiveShadowStyle_Alternate" xfId="4"/>
-    <cellStyle name="i3102ieq" xfId="5"/>
-    <cellStyle name="i3102ieq_Alternate" xfId="6"/>
-    <cellStyle name="ri3gkf5l" xfId="7"/>
-    <cellStyle name="ri3gkf5l_Alternate" xfId="8"/>
-    <cellStyle name="top2vqel" xfId="9"/>
-    <cellStyle name="top2vqel_Alternate" xfId="10"/>
+    <cellStyle name="yba40jmy" xfId="5"/>
+    <cellStyle name="yba40jmy_Alternate" xfId="6"/>
+    <cellStyle name="r1zu0qda" xfId="7"/>
+    <cellStyle name="r1zu0qda_Alternate" xfId="8"/>
+    <cellStyle name="citswxs3" xfId="9"/>
+    <cellStyle name="citswxs3_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-11/Sample-11.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-11/Sample-11.xlsx
@@ -147,16 +147,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="buckwppb" xfId="1"/>
-    <cellStyle name="buckwppb_Alternate" xfId="2"/>
+    <cellStyle name="ycsjnnzh" xfId="1"/>
+    <cellStyle name="ycsjnnzh_Alternate" xfId="2"/>
     <cellStyle name="PerspectiveShadowStyle" xfId="3"/>
     <cellStyle name="PerspectiveShadowStyle_Alternate" xfId="4"/>
-    <cellStyle name="yba40jmy" xfId="5"/>
-    <cellStyle name="yba40jmy_Alternate" xfId="6"/>
-    <cellStyle name="r1zu0qda" xfId="7"/>
-    <cellStyle name="r1zu0qda_Alternate" xfId="8"/>
-    <cellStyle name="citswxs3" xfId="9"/>
-    <cellStyle name="citswxs3_Alternate" xfId="10"/>
+    <cellStyle name="jq5knz10" xfId="5"/>
+    <cellStyle name="jq5knz10_Alternate" xfId="6"/>
+    <cellStyle name="4w12gwkx" xfId="7"/>
+    <cellStyle name="4w12gwkx_Alternate" xfId="8"/>
+    <cellStyle name="tlnquir4" xfId="9"/>
+    <cellStyle name="tlnquir4_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
